--- a/biology/Botanique/Beam_Suntory/Beam_Suntory.xlsx
+++ b/biology/Botanique/Beam_Suntory/Beam_Suntory.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Beam Suntory, anciennement Beam,  Beam Global Spirits &amp; Wine ou encore Jim Beam Brands Worldwide, est une entreprise de vins et spiritueux issue d'une scission de l'entreprise américaine Fortune Brands. Elle se situe au cinquième rang mondial dans son secteur d'activité[1].
+Beam Suntory, anciennement Beam,  Beam Global Spirits &amp; Wine ou encore Jim Beam Brands Worldwide, est une entreprise de vins et spiritueux issue d'une scission de l'entreprise américaine Fortune Brands. Elle se situe au cinquième rang mondial dans son secteur d'activité.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son portefeuille des vins a été cédé à Constellation Brands en 2007.
-En janvier 2014, Suntory acquiert Beam, pour 13,6 milliards de dollars, ou 16 milliards de dollars dette incluse, Créant la troisième plus grande entreprise de spiritueux au monde[2]. Le 30 avril 2014, date de finalisation de l'acquisition, Beam devient Beam Suntory [3].
-En décembre 2023, Campari annonce l'acquisition de Courvoisier à Beam Suntory pour 1,2 milliard de dollars[4].
+En janvier 2014, Suntory acquiert Beam, pour 13,6 milliards de dollars, ou 16 milliards de dollars dette incluse, Créant la troisième plus grande entreprise de spiritueux au monde. Le 30 avril 2014, date de finalisation de l'acquisition, Beam devient Beam Suntory .
+En décembre 2023, Campari annonce l'acquisition de Courvoisier à Beam Suntory pour 1,2 milliard de dollars.
 </t>
         </is>
       </c>
@@ -545,11 +559,48 @@
           <t>Marques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Beam détient le premier rang mondial sur le marché des bourbons, et détient d'autres marques de whiskies, eaux-de-vie et liqueurs, les principales étant listées ci-dessous. 
-Whiskies
-Jim Beam (bourbon)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beam détient le premier rang mondial sur le marché des bourbons, et détient d'autres marques de whiskies, eaux-de-vie et liqueurs, les principales étant listées ci-dessous. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Beam_Suntory</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beam_Suntory</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Marques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Whiskies</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jim Beam (bourbon)
 Canadian Club et Windsor (whiskies canadiens)
 Laphroaig, Bowmore et Ardmore (single malts écossais)
 Maker's Mark (bourbon)
@@ -562,9 +613,43 @@
 Old Crow (en) et Old Grand-Dad (bourbon)
 Old Overholt (rye whisky)
 Tangle Ridge (whisky canadien)
-Teacher's (whisky écossais)
-Eaux-de-vie
-Courvoisier (cognac)
+Teacher's (whisky écossais)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Beam_Suntory</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beam_Suntory</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Marques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Eaux-de-vie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Courvoisier (cognac)
 Vox (vodkas)
 Baron Von Scheuters Schnapps
 Baranof et Wolfschmidt (vodkas)
@@ -575,15 +660,83 @@
 Jacobi et Fundador (brandies)
 Gilbey's (gin, vodka et rhum)
 Kamtchatka (gin, vodka)
-Sauza et El Tesoro de Don Felipe (tequilas)
-Liqueurs
-Kamora (liqueurs de café)
+Sauza et El Tesoro de Don Felipe (tequilas)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Beam_Suntory</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beam_Suntory</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Marques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liqueurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Kamora (liqueurs de café)
 Leroux
 DeKuyper
 Tempo (triple sec)
-Starbucks Coffee Liqueur, Starbucks Cream Liqueur
-Prémix
-Jim Beam &amp; Cola</t>
+Starbucks Coffee Liqueur, Starbucks Cream Liqueur</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Beam_Suntory</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beam_Suntory</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Marques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Prémix</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Jim Beam &amp; Cola</t>
         </is>
       </c>
     </row>
